--- a/doc/table/商店表.xlsx
+++ b/doc/table/商店表.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000:1:1:1000:1000:5:0；20001:1:1:1000:1000:10:1；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20000:1:1:1000:1000:5:0
 道具id：出售数量：货币类型：显示价格：实际价格：显示等级:是否绑定</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +44,10 @@
     <t>是否绑定：
 0，不绑定
 1，绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000:1:1:1000:1000:5:0;20001:1:1:1000:1000:10:1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -483,13 +483,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/商店表.xlsx
+++ b/doc/table/商店表.xlsx
@@ -47,7 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000:1:1:1000:1000:5:0;20001:1:1:1000:1000:10:1;</t>
+    <t>[[20000,1,1,1000,1000,5,0],[20001,1,1,1000,1000,10,1]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/doc/table/商店表.xlsx
+++ b/doc/table/商店表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>出售道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>[[20000,1,1,1000,1000,5,0],[20001,1,1,1000,1000,10,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +426,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,7 +437,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>

--- a/doc/table/商店表.xlsx
+++ b/doc/table/商店表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3840" windowWidth="14805" windowHeight="10185"/>
@@ -47,11 +47,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[20000,1,1,1000,1000,5,0],[20001,1,1,1000,1000,10,1]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[20000,1,1,1000,1000,5,""],[20001,1,1,1000,1000,10,"1-1"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -178,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +426,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,7 +437,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/商店表.xlsx
+++ b/doc/table/商店表.xlsx
@@ -51,7 +51,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[20000,1,1,1000,1000,5,""],[20001,1,1,1000,1000,10,"1-1"]]</t>
+    <t>[[20000,1,1,1000,1000,"2-5"],[20001,1,1,1000,1000,"1-1,2-10"]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +426,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
